--- a/todo/GIFMS_Tasks.xlsx
+++ b/todo/GIFMS_Tasks.xlsx
@@ -306,21 +306,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <b/>
@@ -703,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,8 +726,8 @@
         <v>27</v>
       </c>
       <c r="E2" s="6">
-        <f>COUNTIF(C2:C22,"*Completed*")/COUNTA(C2:C20)</f>
-        <v>0.84210526315789469</v>
+        <f>COUNTIF(C2:C29,"*Completed*")/COUNTA(C2:C29)</f>
+        <v>0.75</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -983,7 +969,7 @@
         <v>42978</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1027,7 +1013,7 @@
         <v>42978</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1038,7 +1024,7 @@
         <v>42978</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1047,10 +1033,10 @@
     <sortCondition ref="B1"/>
   </sortState>
   <conditionalFormatting sqref="C2:C29">
-    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Completed">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Completed">
       <formula>NOT(ISERROR(SEARCH("Completed",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1246,18 +1232,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Completed">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Completed">
       <formula>NOT(ISERROR(SEARCH("Completed",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C11">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Completed">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Completed">
       <formula>NOT(ISERROR(SEARCH("Completed",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1397,10 +1383,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="Completed">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Completed">
       <formula>NOT(ISERROR(SEARCH("Completed",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Pending">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Pending">
       <formula>NOT(ISERROR(SEARCH("Pending",C2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/todo/GIFMS_Tasks.xlsx
+++ b/todo/GIFMS_Tasks.xlsx
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +727,7 @@
       </c>
       <c r="E2" s="6">
         <f>COUNTIF(C2:C29,"*Completed*")/COUNTA(C2:C29)</f>
-        <v>0.75</v>
+        <v>0.8214285714285714</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -870,7 +870,7 @@
         <v>42977</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -980,7 +980,7 @@
         <v>42978</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
